--- a/export/V0.1/hw_proteus_72_NB_BOM.xlsx
+++ b/export/V0.1/hw_proteus_72_NB_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\RUSEFI\PnPRE\PROTEUS\hw_proteus_72_NB\export\V0.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\RUSEFI\Gits\hw_PnProteus_72P_NB2\export\V0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4158EFE7-604D-4A92-909C-2007EC433CA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0326012C-42F1-49A9-A271-FDD4708F02F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="6240" windowWidth="21600" windowHeight="8970"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hw_proteus_72_NB_BOM" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>R16,R15,R14,R13,R12,R11,R10,R9,R8,R7,R6,R5,R4,R3,R2,R1</t>
-  </si>
-  <si>
     <t>EXTENDED2,EXTENDED1,PROT3</t>
   </si>
   <si>
@@ -116,12 +113,15 @@
   </si>
   <si>
     <t>C2286</t>
+  </si>
+  <si>
+    <t>R17,R16,R15,R14,R13,R12,R11,R10,R9,R8,R7,R6,R5,R4,R3,R2,R1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -955,11 +955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +974,7 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
@@ -988,13 +988,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1013,13 +1013,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,13 +1027,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1041,13 +1041,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
